--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBFB6CB-1562-46E3-BED6-722AFA0111C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0296D10-AE53-4ABC-B406-C78F9F1792FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="750" windowWidth="20520" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="750" windowWidth="20520" windowHeight="13545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -116,16 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문서 제목
-목차 테이블을 모두 제거하고 본문만 남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document Title
-Remove all table of contents and leave only the text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인라인 코드 기본 포멧
 참조 :  "@&lt;bookmark:@인라인 코드 블럭&gt;"
 (default : "cpp")</t>
@@ -163,6 +153,18 @@
     <t>Specify the document language
 Refer to. : "@&lt;bookmark:@Document activation&gt;"
 (default : "en")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Title
+Remove all table of contents and leave only the text
+(default : false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 제목
+목차 테이블을 모두 제거하고 본문만 남김
+(default : false)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -530,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -538,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -549,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -560,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -571,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -582,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -593,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -607,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -648,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -659,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -692,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0296D10-AE53-4ABC-B406-C78F9F1792FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0667C-04F7-4727-9B36-42227503AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="750" windowWidth="20520" windowHeight="13545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드 인용 배경 색
-(default : F7F7F7")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표의 경계선 색상
-(default : "AEAAAA")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docgen.language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,16 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code block background color
-(default : F7F7F7")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table border color
-(default : "AEAAAA")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Default fixed width font font name
 Refer to. :  "@&lt;bookmark:@Fixed font&gt;", "@&lt;bookmark:@Code block&gt;", "@&lt;bookmark:@Inline code block&gt;"
 (default : "Cascadia Mono")</t>
@@ -165,6 +145,26 @@
     <t>문서 제목
 목차 테이블을 모두 제거하고 본문만 남김
 (default : false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 인용 배경 색 (24bit hex)
+(default : F7F7F7")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표의 경계선 색상 (24bit hex)
+(default : "AEAAAA")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table border color (24bit hex)
+(default : "AEAAAA")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code block background color (24bit hex)
+(default : F7F7F7")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +221,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -586,18 +586,18 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +612,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,13 +624,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -696,18 +696,18 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0667C-04F7-4727-9B36-42227503AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D837D25-AECF-4590-BD3C-8DB30541CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,34 @@
   <si>
     <t>Code block background color (24bit hex)
 (default : F7F7F7")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.table_header.text_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 글자 색
+(default : "FFFFFF")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table header's text color
+(default : "FFFFFF")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.table_header.bgcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table header's background color
+(default : "808080")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 배경 색
+(default : "808080")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +249,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,17 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,7 +606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -598,6 +626,28 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -609,17 +659,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,6 +758,28 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D837D25-AECF-4590-BD3C-8DB30541CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB0101-DEE3-4DA1-907B-FAC0C54C0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="1275" windowWidth="18495" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,38 @@
   <si>
     <t>표 헤더의 배경 색
 (default : "808080")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.table_header.height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.table_content.height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 셀 높이 강제 수정
+(default : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 내용의 셀 높이 강제 수정
+(default : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force to set cell height in table header
+(default : 0(auto), After applying to the table, it is reset back to 0.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force to set cell height in table contents
+(default : 0(auto), After applying to the table, it is reset back to 0.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,11 +559,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -650,6 +680,28 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,6 +834,28 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB0101-DEE3-4DA1-907B-FAC0C54C0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA4926-0A3C-40CC-81BC-69CA64E0F223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1275" windowWidth="18495" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,22 @@
   <si>
     <t>Force to set cell height in table contents
 (default : 0(auto), After applying to the table, it is reset back to 0.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.hangul.auto_postfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable correction of the Korean suffix after bookmark or property
+- Modify "이/가", "을/를", "은/는" and "와/과" to match the pronunciation.
+(default : true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmark 나 property 뒤의 한글 접미사를 올바르게 수정을 활성화
+"이/가", "을/를", "은/는", "와/과" 를 알맞게 수정한다.
+(default : true)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,9 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -702,6 +720,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -711,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,6 +885,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA4926-0A3C-40CC-81BC-69CA64E0F223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82671B1-E016-4A86-9C37-2406B245EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docgen.hangul.auto_postfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable correction of the Korean suffix after bookmark or property
 - Modify "이/가", "을/를", "은/는" and "와/과" to match the pronunciation.
 (default : true)</t>
@@ -241,6 +237,10 @@
     <t>bookmark 나 property 뒤의 한글 접미사를 올바르게 수정을 활성화
 "이/가", "을/를", "은/는", "와/과" 를 알맞게 수정한다.
 (default : true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.hangul.auto_suffix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,13 +722,13 @@
     </row>
     <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,13 +887,13 @@
     </row>
     <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82671B1-E016-4A86-9C37-2406B245EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2AC0E-3F88-4FC4-A2DB-94042922FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,12 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문서 언어를 지정
-참조 : "@&lt;bookmark:@문서 활성화&gt;"
-(default : "en")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,12 +97,6 @@
   </si>
   <si>
     <t>Document property variables table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인라인 코드 기본 포멧
-참조 :  "@&lt;bookmark:@인라인 코드 블럭&gt;"
-(default : "cpp")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,12 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 고정폭 글꼴 폰트명
-참조 :  "@&lt;bookmark:@고정폭 글꼴&gt;", "@&lt;bookmark:@코드 블럭&gt;", "@&lt;bookmark:@인라인 코드 블럭&gt;"
-(default : "Cascadia Mono")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Specify the document language
 Refer to. : "@&lt;bookmark:@Document activation&gt;"
 (default : "en")</t>
@@ -142,27 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문서 제목
-목차 테이블을 모두 제거하고 본문만 남김
-(default : false)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 인용 배경 색 (24bit hex)
-(default : F7F7F7")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표의 경계선 색상 (24bit hex)
-(default : "AEAAAA")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table border color (24bit hex)
-(default : "AEAAAA")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code block background color (24bit hex)
 (default : F7F7F7")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,11 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표 헤더의 글자 색
-(default : "FFFFFF")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table header's text color
 (default : "FFFFFF")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,11 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표 헤더의 배경 색
-(default : "808080")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docgen.table_header.height</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,16 +156,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표 헤더의 셀 높이 강제 수정
-(default : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표 내용의 셀 높이 강제 수정
-(default : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,13 +175,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>docgen.hangul.auto_suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.code_header_bgcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(default : F7F7F7")</t>
+  </si>
+  <si>
+    <t>Code block header's background color (24bit hex)
+(default : EDEDED")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 제목
+목차 테이블을 모두 제거하고 본문만 남김
+(기본값 : false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인라인 코드 기본 포멧
+참조 :  "@&lt;bookmark:@인라인 코드 블럭&gt;"
+(기본값 : "cpp")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 인용 배경 색 (24bit hex)
+(기본값 : F7F7F7")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코등 인용 헤더 배경 색 (24bit hex)
+(기본값 : EDEDED")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표의 경계선 색상 (24bit hex)
+(기본값 : "AEAAAA")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 고정폭 글꼴 폰트명
+참조 :  "@&lt;bookmark:@고정폭 글꼴&gt;", "@&lt;bookmark:@코드 블럭&gt;", "@&lt;bookmark:@인라인 코드 블럭&gt;"
+(기본값 : "Cascadia Mono")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 언어를 지정
+참조 : "@&lt;bookmark:@문서 활성화&gt;"
+(기본값 : "en")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 글자 색
+(기본값 : "FFFFFF")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 배경 색
+(기본값 : "808080")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 헤더의 셀 높이 강제 수정
+(기본값 : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 내용의 셀 높이 강제 수정
+(기본값 : 0(auto), 표에 적용 후 다시 0으로 리셋됨.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bookmark 나 property 뒤의 한글 접미사를 올바르게 수정을 활성화
 "이/가", "을/를", "은/는", "와/과" 를 알맞게 수정한다.
-(default : true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docgen.hangul.auto_suffix</t>
+(기본값 : true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.table_content.scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force to set table width scale (0 &lt; width_scale &lt;= 1)
+(default : 1.0, After applying to the table, it is reset back to 1.0.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 너비 비율 (0 &lt; 너비_비율 &lt;= 1)
+(기본값 : 1.0, 표에 적용 후 다시 1.0로 리셋됨.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -618,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -629,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -640,95 +674,117 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,13 +811,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -794,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -805,95 +861,117 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2AC0E-3F88-4FC4-A2DB-94042922FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011174B-9B1B-4343-930B-A7A994255066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="1275" windowWidth="18495" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,20 @@
   <si>
     <t>표 너비 비율 (0 &lt; 너비_비율 &lt;= 1)
 (기본값 : 1.0, 표에 적용 후 다시 1.0로 리셋됨.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.bookmark.always_bold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blookmark 참조를 항상 굵은 글씨로 표현합니다.
+(기본값 : false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blookmark text always display in bold.
+(default : false)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,6 +801,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -974,6 +999,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Common/doc/docgen/media/docgen_variables.xlsx
+++ b/Common/doc/docgen/media/docgen_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\docgen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011174B-9B1B-4343-930B-A7A994255066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB4F693-EE33-4ACA-8811-6E5E889846B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1275" windowWidth="18495" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Variable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,20 @@
   <si>
     <t>blookmark text always display in bold.
 (default : false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docgen.default_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 스타일 명
+(기본값 : "BodyText10")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default style name
+(default : "BodyText10")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,20 +637,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="61.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -658,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -669,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -680,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -691,7 +705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -702,7 +716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -713,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -724,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -735,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -746,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -757,7 +771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -768,7 +782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -779,7 +793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -790,7 +804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -801,7 +815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -810,6 +824,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -821,20 +846,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27C0F04-F5AF-48B5-963E-51148E9BECA9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -845,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -856,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -867,7 +892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -878,7 +903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -889,7 +914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -900,7 +925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -911,7 +936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -922,7 +947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -933,7 +958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -944,7 +969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -955,7 +980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -966,7 +991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -977,7 +1002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -988,7 +1013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -999,7 +1024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1008,6 +1033,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
